--- a/formatexcel/new /rudi.xlsx
+++ b/formatexcel/new /rudi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
   <si>
     <t>TANGGAL_ABSEN</t>
   </si>
@@ -50,7 +50,10 @@
     <t>0111003</t>
   </si>
   <si>
-    <t>0111001</t>
+    <t>0411001</t>
+  </si>
+  <si>
+    <t>0212001</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -402,7 +405,7 @@
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -421,26 +424,8 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -459,26 +444,8 @@
       <c r="F2" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -497,26 +464,8 @@
       <c r="F3" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -535,26 +484,8 @@
       <c r="F4" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -573,26 +504,8 @@
       <c r="F5" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -611,26 +524,8 @@
       <c r="F6" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -649,26 +544,8 @@
       <c r="F7" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -687,26 +564,8 @@
       <c r="F8" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -725,26 +584,8 @@
       <c r="F9" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -763,26 +604,8 @@
       <c r="F10" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -801,26 +624,8 @@
       <c r="F11" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -839,26 +644,8 @@
       <c r="F12" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -877,26 +664,8 @@
       <c r="F13" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -915,26 +684,8 @@
       <c r="F14" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -953,26 +704,8 @@
       <c r="F15" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -991,26 +724,8 @@
       <c r="F16" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1029,26 +744,8 @@
       <c r="F17" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1067,26 +764,8 @@
       <c r="F18" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
@@ -1105,26 +784,8 @@
       <c r="F19" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1143,26 +804,8 @@
       <c r="F20" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -1181,26 +824,8 @@
       <c r="F21" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -1219,26 +844,8 @@
       <c r="F22" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -1257,60 +864,664 @@
       <c r="F23" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K23" s="1">
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E46" s="1">
         <v>0.30972222222222223</v>
       </c>
-      <c r="L23" s="1">
+      <c r="F46" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43678</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L24" s="1">
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F56" s="1">
         <v>0.70833333333333337</v>
       </c>
     </row>
